--- a/verification.xlsx
+++ b/verification.xlsx
@@ -1437,8 +1437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -2132,10 +2132,18 @@
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
+      <c r="B39" s="11">
+        <v>0.71</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.84</v>
+      </c>
+      <c r="D39" s="11">
+        <v>0.74</v>
+      </c>
+      <c r="E39" s="11">
+        <v>0.8</v>
+      </c>
       <c r="F39" s="15">
         <v>0.66355139017105103</v>
       </c>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -256,11 +256,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>MFCC + TEMPO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>process_model_06_2022-02-19-00-07-04_310-0.84-0.86-0.71-0.73.h5</t>
+  </si>
+  <si>
+    <t>MFCC + PITCH +VOLUME + TEMPO</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -941,7 +941,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -955,7 +955,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="41" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1437,9 +1436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
@@ -2144,14 +2141,14 @@
       <c r="E39" s="11">
         <v>0.8</v>
       </c>
-      <c r="F39" s="15">
+      <c r="F39" s="14">
         <v>0.66355139017105103</v>
       </c>
-      <c r="G39" s="15">
+      <c r="G39" s="14">
         <v>1.05123579502105</v>
       </c>
-      <c r="H39" s="14" t="s">
-        <v>46</v>
+      <c r="H39" s="13" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.45">
@@ -2165,90 +2162,86 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A41" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="11"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="6"/>
+      <c r="A41" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="8"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="9"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A42" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="A42" s="5"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="5"/>
       <c r="G42" s="5"/>
-      <c r="H42" s="6"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A43" s="13" t="s">
-        <v>45</v>
-      </c>
+      <c r="A43" s="11"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
       <c r="F43" s="5"/>
       <c r="G43" s="5"/>
-      <c r="H43" s="6"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A44" s="4"/>
+      <c r="A44" s="5"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="5"/>
       <c r="G44" s="5"/>
-      <c r="H44" s="6"/>
+      <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A45" s="4"/>
+      <c r="A45" s="5"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="11"/>
       <c r="E45" s="11"/>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
-      <c r="H45" s="6"/>
+      <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A46" s="4"/>
+      <c r="A46" s="5"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
       <c r="E46" s="11"/>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
-      <c r="H46" s="6"/>
+      <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A47" s="4"/>
+      <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
-      <c r="H47" s="6"/>
+      <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A48" s="7"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="9"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A49" s="5"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11952"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
   </bookViews>
   <sheets>
     <sheet name="検証結果" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -259,7 +259,11 @@
     <t>process_model_06_2022-02-19-00-07-04_310-0.84-0.86-0.71-0.73.h5</t>
   </si>
   <si>
-    <t>MFCC + PITCH +VOLUME + TEMPO</t>
+    <t>MFCC (max-min)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>MFCC (z-score)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1436,39 +1440,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.59765625" customWidth="1"/>
+    <col min="1" max="1" width="42.25" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="63.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.69921875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.19921875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>29</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1494,7 +1500,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1552,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1572,7 +1578,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1598,11 +1604,11 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1628,7 +1634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1680,7 +1686,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1690,7 +1696,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
         <v>23</v>
       </c>
@@ -1716,7 +1722,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
         <v>24</v>
       </c>
@@ -1742,7 +1748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1752,7 +1758,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
         <v>27</v>
       </c>
@@ -1778,13 +1784,13 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>30</v>
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1810,7 +1816,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1836,7 +1842,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1862,7 +1868,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -1914,11 +1920,11 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -1944,7 +1950,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -1970,7 +1976,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2006,7 +2012,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2068,7 +2074,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>40</v>
       </c>
@@ -2094,12 +2100,12 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2125,7 +2131,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="4" t="s">
         <v>14</v>
       </c>
@@ -2151,8 +2157,10 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A40" s="4"/>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="5"/>
@@ -2161,9 +2169,9 @@
       <c r="G40" s="5"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -2173,7 +2181,7 @@
       <c r="G41" s="8"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -2183,7 +2191,7 @@
       <c r="G42" s="5"/>
       <c r="H42" s="5"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -2193,7 +2201,7 @@
       <c r="G43" s="5"/>
       <c r="H43" s="5"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2203,7 +2211,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="5"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -2213,7 +2221,7 @@
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="5"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -2223,7 +2231,7 @@
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="5"/>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
@@ -2233,7 +2241,7 @@
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="5"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -2243,7 +2251,7 @@
       <c r="G48" s="5"/>
       <c r="H48" s="5"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="5"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -2253,7 +2261,7 @@
       <c r="G49" s="5"/>
       <c r="H49" s="5"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="5"/>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -2263,7 +2271,7 @@
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="5"/>
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,13 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
       <t>シュホウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>特徴量</t>
@@ -35,177 +35,173 @@
     <rPh sb="2" eb="3">
       <t>リョウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>PITCH</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>訓練acc</t>
     <rPh sb="0" eb="2">
       <t>クンレン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>訓練loss</t>
     <rPh sb="0" eb="2">
       <t>クンレン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>検証acc</t>
     <rPh sb="0" eb="2">
       <t>ケンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>検証loss</t>
     <rPh sb="0" eb="2">
       <t>ケンショウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テストacc</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>テストloss</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>VOLUME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>TEMPO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + PITCH</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + VOLUME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + TEMPO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-19_final05_86.2%_model.h5</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>model name</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-19_final05_15.5%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-19_final06_69.0%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-20_final03_15.5%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-23_final03_87.3%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-25_final02_88.1%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-26_final02_85.3%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + TEMPO + PITCH</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC +TEMPO + VOLUME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-27_final08_85.6%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-27_final10_88.0%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + TEMPO + VOLUME + PITCH</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-02-29_final07_88.6%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Data set No.1（外たれOnly）&amp; Data Augument &amp;  500epoch</t>
     <rPh sb="14" eb="15">
       <t>ガイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>Data set No.2（日本人Only）&amp; Data Augument &amp; 500epoch</t>
     <rPh sb="14" eb="17">
       <t>ニホンジン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-01_final01_99.6%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-01_final04_92.5%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-02_final02_93.7%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-06_final03_33.4%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-07_final09_99.8%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-07_final10_99.9%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-08_final06_99.7%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + PITCH + TEMPO</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>MFCC + PITCH + VOLUME</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <r>
@@ -232,15 +228,15 @@
       </rPr>
       <t>OLUME</t>
     </r>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-08_final03_99.6%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2020-03-09_final06_99.8%_model.h5</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
   </si>
   <si>
     <t>CNN_RNN_BiLSTM_2022-02-17_final03_80.3%_model.h5</t>
@@ -253,30 +249,54 @@
     <rPh sb="19" eb="21">
       <t>ガイジン</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>process_model_06_2022-02-19-00-07-04_310-0.84-0.86-0.71-0.73.h5</t>
-  </si>
-  <si>
-    <t>MFCC (max-min)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>MFCC (z-score)</t>
-    <phoneticPr fontId="2"/>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Best model name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MLP, Dataset 日本人 &amp; 外人増加 &amp; Augumentなし, epoch=500, Data数=37148</t>
+    <rPh sb="13" eb="16">
+      <t>ニホンジン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ガイジン</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ゾウカ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>process_model_05_303-0.62-0.53-0.79-0.82.h5</t>
+  </si>
+  <si>
+    <t>process_model_06_310-0.84-0.86-0.71-0.73.h5</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -818,134 +838,134 @@
   </borders>
   <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -959,10 +979,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="41" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="41" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="41" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1034,27 @@
     <cellStyle name="標準 2" xfId="41"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="17">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1440,13 +1483,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.25" customWidth="1"/>
+    <col min="1" max="1" width="34.25" customWidth="1"/>
     <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
@@ -1470,7 +1513,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="10"/>
     </row>
@@ -1497,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.4">
@@ -1549,7 +1592,7 @@
         <v>2.0309492308160499</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -1575,7 +1618,7 @@
         <v>9.5017340121061906</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -1601,7 +1644,7 @@
         <v>2.0301099735757502</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -1631,7 +1674,7 @@
         <v>4.0645744385926603</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
@@ -1657,7 +1700,7 @@
         <v>4.4434912619383402</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
@@ -1683,7 +1726,7 @@
         <v>3.02813235987787</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -1698,7 +1741,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="11">
         <v>89.157300000000006</v>
@@ -1719,12 +1762,12 @@
         <v>3.3214287363964501</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" s="11">
         <v>89.388800000000003</v>
@@ -1745,7 +1788,7 @@
         <v>4.5268784792526899</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
@@ -1760,7 +1803,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="8">
         <v>90.227400000000003</v>
@@ -1781,12 +1824,12 @@
         <v>4.6358332903488799</v>
       </c>
       <c r="H17" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" s="10"/>
     </row>
@@ -1813,7 +1856,7 @@
         <v>8</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -1839,7 +1882,7 @@
         <v>3.9272777458883699</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -1865,7 +1908,7 @@
         <v>4.9420265101641396</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
@@ -1891,7 +1934,7 @@
         <v>3.5370035549004801</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
@@ -1917,7 +1960,7 @@
         <v>1.09861990451812</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
@@ -1947,7 +1990,7 @@
         <v>3.5642465432409201</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
@@ -1973,7 +2016,7 @@
         <v>4.0934476775152104</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
@@ -1999,7 +2042,7 @@
         <v>3.4321631635513001</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
@@ -2014,7 +2057,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="11">
         <v>99.803899999999999</v>
@@ -2035,12 +2078,12 @@
         <v>4.6677117919918301</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="11">
         <v>99.866500000000002</v>
@@ -2061,7 +2104,7 @@
         <v>3.4994441684079298</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
@@ -2076,7 +2119,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B34" s="8">
         <v>72.454348206519995</v>
@@ -2097,12 +2140,12 @@
         <v>0.89249807596206598</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
@@ -2128,78 +2171,108 @@
         <v>8</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B39" s="11">
+      <c r="B39" s="12">
         <v>0.71</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>0.84</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <v>0.74</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E39" s="12">
         <v>0.8</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="13">
         <v>0.66355139017105103</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>1.05123579502105</v>
       </c>
-      <c r="H39" s="13" t="s">
-        <v>45</v>
+      <c r="H39" s="15" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A40" s="4" t="s">
-        <v>46</v>
-      </c>
+      <c r="A40" s="5"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="5"/>
       <c r="E40" s="11"/>
       <c r="F40" s="5"/>
       <c r="G40" s="5"/>
-      <c r="H40" s="6"/>
+      <c r="H40" s="5"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A41" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="9"/>
+      <c r="A41" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A42" s="5"/>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11"/>
-      <c r="D42" s="11"/>
-      <c r="E42" s="11"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A43" s="11"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
+      <c r="A43" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="12">
+        <v>0.79</v>
+      </c>
+      <c r="C43" s="12">
+        <v>0.61</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.82</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.54</v>
+      </c>
+      <c r="F43" s="13">
+        <v>0.75848144292831399</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.74760383367538397</v>
+      </c>
+      <c r="H43" s="14" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
@@ -2282,50 +2355,56 @@
       <c r="H51" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
+  <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F5:F8">
+    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F10:F12">
+    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F15">
     <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10:F12">
+  <conditionalFormatting sqref="F17">
     <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14:F15">
+  <conditionalFormatting sqref="F22:F25">
     <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
+  <conditionalFormatting sqref="F27:F29">
     <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F25">
+  <conditionalFormatting sqref="F31:F32">
     <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27:F29">
+  <conditionalFormatting sqref="F34">
     <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F31:F32">
+  <conditionalFormatting sqref="F5:F17">
     <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F34">
+  <conditionalFormatting sqref="F22:F34">
     <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5:F17">
+  <conditionalFormatting sqref="F39:F41">
     <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F22:F34">
+  <conditionalFormatting sqref="F44:F46">
     <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F42">
+  <conditionalFormatting sqref="F48:F49">
     <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F46">
+  <conditionalFormatting sqref="F51">
     <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F49">
+  <conditionalFormatting sqref="F39:F41 F44:F51">
     <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="F43">
     <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F51">
+  <conditionalFormatting sqref="F43">
     <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -277,6 +277,46 @@
   <si>
     <t>process_model_06_310-0.84-0.86-0.71-0.73.h5</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>DDMLP</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>モデル名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>セクション数</t>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストacc</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テストloss</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Best model name</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_98-0.48-0.44-0.83-0.84.h5</t>
+  </si>
+  <si>
+    <t>final_LSTM_hold_0.61-0.78%_model.h5</t>
   </si>
 </sst>
 </file>
@@ -1483,17 +1523,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="34.25" customWidth="1"/>
-    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.875" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
     <col min="8" max="8" width="63.5" bestFit="1" customWidth="1"/>
@@ -2285,38 +2324,72 @@
       <c r="H44" s="5"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A45" s="5"/>
-      <c r="B45" s="11"/>
-      <c r="C45" s="11"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="11"/>
+      <c r="A45" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>54</v>
+      </c>
       <c r="F45" s="5"/>
       <c r="G45" s="5"/>
       <c r="H45" s="5"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A46" s="5"/>
-      <c r="B46" s="11"/>
-      <c r="C46" s="11"/>
-      <c r="D46" s="11"/>
-      <c r="E46" s="11"/>
+      <c r="A46" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.78136777877807595</v>
+      </c>
+      <c r="D46" s="11">
+        <v>0.60685682296752896</v>
+      </c>
+      <c r="E46" s="11" t="s">
+        <v>55</v>
+      </c>
       <c r="F46" s="5"/>
       <c r="G46" s="5"/>
       <c r="H46" s="5"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="A47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0.68820679187774603</v>
+      </c>
+      <c r="D47" s="5">
+        <v>0.84641164541244496</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>56</v>
+      </c>
       <c r="F47" s="5"/>
       <c r="G47" s="5"/>
       <c r="H47" s="5"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A48" s="5"/>
-      <c r="B48" s="11"/>
+      <c r="A48" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" s="11">
+        <v>30</v>
+      </c>
       <c r="C48" s="11"/>
       <c r="D48" s="11"/>
       <c r="E48" s="11"/>
@@ -2325,8 +2398,12 @@
       <c r="H48" s="5"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A49" s="5"/>
-      <c r="B49" s="11"/>
+      <c r="A49" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B49" s="5">
+        <v>30</v>
+      </c>
       <c r="C49" s="11"/>
       <c r="D49" s="11"/>
       <c r="E49" s="11"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -317,6 +317,63 @@
   </si>
   <si>
     <t>final_LSTM_hold_0.61-0.78%_model.h5</t>
+  </si>
+  <si>
+    <t>特徴量</t>
+    <rPh sb="0" eb="3">
+      <t>トクチョウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MFCC + PITCH + VOLUME + TEMPO</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ数</t>
+    <rPh sb="3" eb="4">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>MFCC</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SimpleRNN</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>LSTM</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>実験番号</t>
+    <rPh sb="0" eb="2">
+      <t>ジッケン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>バンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>データ拡張</t>
+    <rPh sb="3" eb="5">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>None</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_98-0.05-1.31-0.98-0.82.h5</t>
+  </si>
+  <si>
+    <t>process_LSTM_hold_98-0.51-0.69-0.80-0.74.h5</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1131,7 @@
     <cellStyle name="標準 2" xfId="41"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="16">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1102,16 +1159,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1521,22 +1568,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:I52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="34.875" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="63.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5" customWidth="1"/>
+    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="9" max="9" width="47.75" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
@@ -2146,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2156,7 +2203,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -2182,12 +2229,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2213,7 +2260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -2239,7 +2286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" s="5"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2249,7 +2296,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -2261,7 +2308,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2287,7 +2334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" s="7" t="s">
         <v>39</v>
       </c>
@@ -2313,7 +2360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" s="5"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2323,159 +2370,259 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="B45" s="11" t="s">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="E45" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="G45" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="D45" s="11" t="s">
+      <c r="H45" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="I45" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B46" s="11">
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46">
         <v>1</v>
       </c>
-      <c r="C46" s="11">
+      <c r="D46" s="11">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>37148</v>
+      </c>
+      <c r="F46" t="s">
+        <v>65</v>
+      </c>
+      <c r="G46" s="11">
         <v>0.78136777877807595</v>
       </c>
-      <c r="D46" s="11">
+      <c r="H46" s="11">
         <v>0.60685682296752896</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="I46" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B47" s="5">
+      <c r="B47" t="s">
+        <v>58</v>
+      </c>
+      <c r="C47">
         <v>1</v>
       </c>
-      <c r="C47" s="5">
+      <c r="D47" s="5">
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <v>37148</v>
+      </c>
+      <c r="F47" t="s">
+        <v>65</v>
+      </c>
+      <c r="G47" s="5">
         <v>0.68820679187774603</v>
       </c>
-      <c r="D47" s="5">
+      <c r="H47" s="5">
         <v>0.84641164541244496</v>
       </c>
-      <c r="E47" s="5" t="s">
+      <c r="I47" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="11">
+      <c r="B48" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" s="11">
         <v>30</v>
       </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="E48">
+        <v>37148</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" s="11">
+        <v>0.76117396354675204</v>
+      </c>
+      <c r="H48" s="11">
+        <v>1.90429770946502</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B49" s="5">
+      <c r="B49" t="s">
+        <v>58</v>
+      </c>
+      <c r="C49">
+        <v>2</v>
+      </c>
+      <c r="D49" s="5">
         <v>30</v>
       </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11"/>
-      <c r="E49" s="11"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
+      <c r="E49">
+        <v>37148</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" s="11">
+        <v>0.64862680435180597</v>
+      </c>
+      <c r="H49" s="11">
+        <v>0.96110582351684504</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" s="11">
+        <v>10</v>
+      </c>
+      <c r="E50" s="5">
+        <v>41608</v>
+      </c>
+      <c r="F50" t="s">
+        <v>65</v>
+      </c>
       <c r="G50" s="5"/>
       <c r="H50" s="5"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" s="11">
+        <v>10</v>
+      </c>
+      <c r="E51" s="5">
+        <v>41608</v>
+      </c>
+      <c r="F51" t="s">
+        <v>65</v>
+      </c>
       <c r="G51" s="5"/>
       <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" s="11">
+        <v>10</v>
+      </c>
+      <c r="E52" s="5">
+        <v>41608</v>
+      </c>
+      <c r="F52" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F5:F8">
-    <cfRule type="top10" dxfId="16" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="15" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F12">
-    <cfRule type="top10" dxfId="15" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="top10" dxfId="14" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="top10" dxfId="13" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="top10" dxfId="12" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="top10" dxfId="11" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="top10" dxfId="10" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="top10" dxfId="9" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="top10" dxfId="8" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F34">
-    <cfRule type="top10" dxfId="7" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F41">
-    <cfRule type="top10" dxfId="6" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="7" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F44:F46">
-    <cfRule type="top10" dxfId="5" priority="6" rank="1"/>
+  <conditionalFormatting sqref="F44">
+    <cfRule type="top10" dxfId="4" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F48:F49">
-    <cfRule type="top10" dxfId="4" priority="5" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F51">
+  <conditionalFormatting sqref="H51">
     <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39:F41 F44:F51">
+  <conditionalFormatting sqref="H50:H51 F39:F41 F44">
     <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11955"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11952"/>
   </bookViews>
   <sheets>
     <sheet name="検証結果" sheetId="1" r:id="rId1"/>
@@ -1574,36 +1574,36 @@
       <selection activeCell="G50" sqref="G50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="34.875" customWidth="1"/>
-    <col min="2" max="2" width="36.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
-    <col min="9" max="9" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.8984375" customWidth="1"/>
+    <col min="2" max="2" width="36.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.09765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.09765625" customWidth="1"/>
+    <col min="8" max="8" width="14.09765625" customWidth="1"/>
+    <col min="9" max="9" width="47.69921875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.69921875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="52.25" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.69921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.69921875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="52.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
         <v>14</v>
       </c>
@@ -1655,7 +1655,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
         <v>2</v>
       </c>
@@ -1681,7 +1681,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
         <v>9</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
         <v>10</v>
       </c>
@@ -1733,11 +1733,11 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="4"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
         <v>12</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
@@ -1815,7 +1815,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1825,7 +1825,7 @@
       <c r="G13" s="5"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="4" t="s">
         <v>22</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="4" t="s">
         <v>23</v>
       </c>
@@ -1877,7 +1877,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1887,7 +1887,7 @@
       <c r="G16" s="5"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="7" t="s">
         <v>26</v>
       </c>
@@ -1913,13 +1913,13 @@
         <v>27</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>29</v>
       </c>
       <c r="G20" s="10"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>1</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A22" s="4" t="s">
         <v>14</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A23" s="4" t="s">
         <v>2</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A24" s="4" t="s">
         <v>9</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A25" s="4" t="s">
         <v>10</v>
       </c>
@@ -2049,11 +2049,11 @@
         <v>33</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A26" s="4"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A27" s="4" t="s">
         <v>11</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A28" s="4" t="s">
         <v>12</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A29" s="4" t="s">
         <v>13</v>
       </c>
@@ -2131,7 +2131,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -2141,7 +2141,7 @@
       <c r="G30" s="5"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A31" s="4" t="s">
         <v>37</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A32" s="4" t="s">
         <v>38</v>
       </c>
@@ -2193,7 +2193,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
@@ -2203,7 +2203,7 @@
       <c r="G33" s="5"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A34" s="7" t="s">
         <v>39</v>
       </c>
@@ -2229,12 +2229,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A39" s="7" t="s">
         <v>14</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A40" s="5"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -2296,7 +2296,7 @@
       <c r="G40" s="5"/>
       <c r="H40" s="5"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41" s="11" t="s">
         <v>45</v>
       </c>
@@ -2308,7 +2308,7 @@
       <c r="G41" s="5"/>
       <c r="H41" s="5"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
@@ -2334,7 +2334,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A43" s="7" t="s">
         <v>39</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44" s="5"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -2370,7 +2370,7 @@
       <c r="G44" s="5"/>
       <c r="H44" s="5"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A45" s="11" t="s">
         <v>50</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A46" s="11" t="s">
         <v>48</v>
       </c>
@@ -2428,7 +2428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47" s="11" t="s">
         <v>49</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A48" s="11" t="s">
         <v>48</v>
       </c>
@@ -2486,7 +2486,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49" s="11" t="s">
         <v>49</v>
       </c>
@@ -2515,7 +2515,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A50" s="11" t="s">
         <v>48</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>10</v>
       </c>
       <c r="E50" s="5">
-        <v>41608</v>
+        <v>41607</v>
       </c>
       <c r="F50" t="s">
         <v>65</v>
@@ -2538,7 +2538,7 @@
       <c r="H50" s="5"/>
       <c r="I50" s="5"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A51" s="11" t="s">
         <v>61</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>10</v>
       </c>
       <c r="E51" s="5">
-        <v>41608</v>
+        <v>41607</v>
       </c>
       <c r="F51" t="s">
         <v>65</v>
@@ -2561,7 +2561,7 @@
       <c r="H51" s="5"/>
       <c r="I51" s="5"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52" s="11" t="s">
         <v>62</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>10</v>
       </c>
       <c r="E52" s="5">
-        <v>41608</v>
+        <v>41607</v>
       </c>
       <c r="F52" t="s">
         <v>65</v>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -374,6 +374,19 @@
   </si>
   <si>
     <t>process_LSTM_hold_98-0.51-0.69-0.80-0.74.h5</t>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_93-0.22-0.41-0.93-0.88.h5</t>
+  </si>
+  <si>
+    <t>process_Simple_RNN_hold_89-1.34-1.23-0.46-0.50.h5</t>
+  </si>
+  <si>
+    <t>process_LSTM_hold_97-0.46-0.51-0.83-0.82.h5</t>
+  </si>
+  <si>
+    <t>MFCC</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1131,7 +1144,167 @@
     <cellStyle name="標準 2" xfId="41"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1568,10 +1741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I52"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G50" sqref="G50"/>
+      <selection activeCell="G53" sqref="G53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2534,9 +2707,15 @@
       <c r="F50" t="s">
         <v>65</v>
       </c>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
+      <c r="G50" s="5">
+        <v>0.80793267488479603</v>
+      </c>
+      <c r="H50" s="5">
+        <v>0.73805886507034302</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" s="11" t="s">
@@ -2557,9 +2736,15 @@
       <c r="F51" t="s">
         <v>65</v>
       </c>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
+      <c r="G51" s="5">
+        <v>0.388221144676208</v>
+      </c>
+      <c r="H51" s="5">
+        <v>1.4753170013427701</v>
+      </c>
+      <c r="I51" s="5" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" s="11" t="s">
@@ -2580,56 +2765,102 @@
       <c r="F52" t="s">
         <v>65</v>
       </c>
+      <c r="G52">
+        <v>0.74903845787048295</v>
+      </c>
+      <c r="H52">
+        <v>0.72602814435958796</v>
+      </c>
+      <c r="I52" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" s="11">
+        <v>1</v>
+      </c>
+      <c r="E53" s="5">
+        <v>41608</v>
+      </c>
+      <c r="F53" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" s="11">
+        <v>1</v>
+      </c>
+      <c r="E54" s="5">
+        <v>41608</v>
+      </c>
+      <c r="F54" t="s">
+        <v>65</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F5:F8">
-    <cfRule type="top10" dxfId="15" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="31" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F12">
-    <cfRule type="top10" dxfId="14" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="30" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="top10" dxfId="13" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="29" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="top10" dxfId="12" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="28" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="top10" dxfId="11" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="27" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="top10" dxfId="10" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="26" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="top10" dxfId="9" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="25" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="top10" dxfId="8" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="24" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="top10" dxfId="7" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="23" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F34">
-    <cfRule type="top10" dxfId="6" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="22" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F41">
-    <cfRule type="top10" dxfId="5" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="21" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="top10" dxfId="4" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="20" priority="6" rank="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H51">
-    <cfRule type="top10" dxfId="3" priority="4" rank="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H50:H51 F39:F41 F44">
-    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
+  <conditionalFormatting sqref="F39:F41 F44">
+    <cfRule type="top10" dxfId="18" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="17" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="16" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -387,6 +387,9 @@
   <si>
     <t>MFCC</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_76-0.54-0.45-0.81-0.84.h5</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1147,7 @@
     <cellStyle name="標準 2" xfId="41"/>
     <cellStyle name="良い" xfId="6" builtinId="26" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="15">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1172,176 +1175,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1744,7 +1577,7 @@
   <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2794,6 +2627,15 @@
       <c r="F53" t="s">
         <v>65</v>
       </c>
+      <c r="G53">
+        <v>0.77427881956100397</v>
+      </c>
+      <c r="H53">
+        <v>0.64284616708755404</v>
+      </c>
+      <c r="I53" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" s="11" t="s">
@@ -2818,49 +2660,49 @@
   </sheetData>
   <phoneticPr fontId="3"/>
   <conditionalFormatting sqref="F5:F8">
-    <cfRule type="top10" dxfId="31" priority="17" rank="1"/>
+    <cfRule type="top10" dxfId="14" priority="17" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10:F12">
-    <cfRule type="top10" dxfId="30" priority="16" rank="1"/>
+    <cfRule type="top10" dxfId="13" priority="16" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F15">
-    <cfRule type="top10" dxfId="29" priority="15" rank="1"/>
+    <cfRule type="top10" dxfId="12" priority="15" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F17">
-    <cfRule type="top10" dxfId="28" priority="14" rank="1"/>
+    <cfRule type="top10" dxfId="11" priority="14" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F25">
-    <cfRule type="top10" dxfId="27" priority="13" rank="1"/>
+    <cfRule type="top10" dxfId="10" priority="13" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F29">
-    <cfRule type="top10" dxfId="26" priority="12" rank="1"/>
+    <cfRule type="top10" dxfId="9" priority="12" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31:F32">
-    <cfRule type="top10" dxfId="25" priority="11" rank="1"/>
+    <cfRule type="top10" dxfId="8" priority="11" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="top10" dxfId="24" priority="10" rank="1"/>
+    <cfRule type="top10" dxfId="7" priority="10" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5:F17">
-    <cfRule type="top10" dxfId="23" priority="9" rank="1"/>
+    <cfRule type="top10" dxfId="6" priority="9" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F22:F34">
-    <cfRule type="top10" dxfId="22" priority="8" rank="1"/>
+    <cfRule type="top10" dxfId="5" priority="8" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F41">
-    <cfRule type="top10" dxfId="21" priority="7" rank="1"/>
+    <cfRule type="top10" dxfId="4" priority="7" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F44">
-    <cfRule type="top10" dxfId="20" priority="6" rank="1"/>
+    <cfRule type="top10" dxfId="3" priority="6" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39:F41 F44">
-    <cfRule type="top10" dxfId="18" priority="3" rank="1"/>
+    <cfRule type="top10" dxfId="2" priority="3" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="top10" dxfId="17" priority="2" rank="1"/>
+    <cfRule type="top10" dxfId="1" priority="2" rank="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F43">
-    <cfRule type="top10" dxfId="16" priority="1" rank="1"/>
+    <cfRule type="top10" dxfId="0" priority="1" rank="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -366,10 +366,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>None</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>process_DDMLP_hold_98-0.05-1.31-0.98-0.82.h5</t>
   </si>
   <si>
@@ -390,6 +386,21 @@
   </si>
   <si>
     <t>process_DDMLP_hold_76-0.54-0.45-0.81-0.84.h5</t>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_85-0.53-0.45-0.81-0.84.h5</t>
+  </si>
+  <si>
+    <t>Yes</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>GRU</t>
+    <phoneticPr fontId="3"/>
   </si>
 </sst>
 </file>
@@ -1574,10 +1585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I54"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2422,7 +2433,7 @@
         <v>37148</v>
       </c>
       <c r="F46" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G46" s="11">
         <v>0.78136777877807595</v>
@@ -2451,7 +2462,7 @@
         <v>37148</v>
       </c>
       <c r="F47" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G47" s="5">
         <v>0.68820679187774603</v>
@@ -2480,7 +2491,7 @@
         <v>37148</v>
       </c>
       <c r="F48" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G48" s="11">
         <v>0.76117396354675204</v>
@@ -2489,7 +2500,7 @@
         <v>1.90429770946502</v>
       </c>
       <c r="I48" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -2509,7 +2520,7 @@
         <v>37148</v>
       </c>
       <c r="F49" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G49" s="11">
         <v>0.64862680435180597</v>
@@ -2518,7 +2529,7 @@
         <v>0.96110582351684504</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -2538,7 +2549,7 @@
         <v>41608</v>
       </c>
       <c r="F50" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G50" s="5">
         <v>0.80793267488479603</v>
@@ -2547,7 +2558,7 @@
         <v>0.73805886507034302</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -2567,7 +2578,7 @@
         <v>41608</v>
       </c>
       <c r="F51" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G51" s="5">
         <v>0.388221144676208</v>
@@ -2576,7 +2587,7 @@
         <v>1.4753170013427701</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -2596,7 +2607,7 @@
         <v>41608</v>
       </c>
       <c r="F52" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G52">
         <v>0.74903845787048295</v>
@@ -2605,7 +2616,7 @@
         <v>0.72602814435958796</v>
       </c>
       <c r="I52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -2613,7 +2624,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -2625,7 +2636,7 @@
         <v>41608</v>
       </c>
       <c r="F53" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G53">
         <v>0.77427881956100397</v>
@@ -2634,7 +2645,7 @@
         <v>0.64284616708755404</v>
       </c>
       <c r="I53" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -2654,7 +2665,56 @@
         <v>41608</v>
       </c>
       <c r="F54" t="s">
-        <v>65</v>
+        <v>74</v>
+      </c>
+      <c r="G54">
+        <v>0.77139425277709905</v>
+      </c>
+      <c r="H54">
+        <v>0.62516617774963301</v>
+      </c>
+      <c r="I54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B55" t="s">
+        <v>58</v>
+      </c>
+      <c r="C55">
+        <v>6</v>
+      </c>
+      <c r="D55" s="11">
+        <v>10</v>
+      </c>
+      <c r="E55" s="11">
+        <v>41608</v>
+      </c>
+      <c r="F55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C56">
+        <v>6</v>
+      </c>
+      <c r="D56" s="11">
+        <v>10</v>
+      </c>
+      <c r="E56" s="11">
+        <v>41608</v>
+      </c>
+      <c r="F56" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -400,6 +400,16 @@
   </si>
   <si>
     <t>GRU</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_56-0.61-0.49-0.78-0.83.h5</t>
+  </si>
+  <si>
+    <t>process_GRU_hold_93-0.85-0.74-0.68-0.72.h5</t>
+  </si>
+  <si>
+    <t>Yes</t>
     <phoneticPr fontId="3"/>
   </si>
 </sst>
@@ -1585,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I56"/>
+  <dimension ref="A1:I57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2696,6 +2706,15 @@
       <c r="F55" t="s">
         <v>73</v>
       </c>
+      <c r="G55">
+        <v>0.83317309617996205</v>
+      </c>
+      <c r="H55">
+        <v>0.48686963319778398</v>
+      </c>
+      <c r="I55" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" s="11" t="s">
@@ -2715,6 +2734,35 @@
       </c>
       <c r="F56" t="s">
         <v>73</v>
+      </c>
+      <c r="G56">
+        <v>0.71634614467620805</v>
+      </c>
+      <c r="H56">
+        <v>0.787544846534729</v>
+      </c>
+      <c r="I56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" s="11">
+        <v>30</v>
+      </c>
+      <c r="E57" s="11">
+        <v>41608</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/verification.xlsx
+++ b/verification.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="80">
   <si>
     <t>FSS手法によるフィーチャエンジニアリング</t>
     <rPh sb="3" eb="5">
@@ -411,6 +411,9 @@
   <si>
     <t>Yes</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>process_DDMLP_hold_64-0.52-0.49-0.81-0.82.h5</t>
   </si>
 </sst>
 </file>
@@ -1597,8 +1600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" topLeftCell="C44" workbookViewId="0">
+      <selection activeCell="I57" sqref="I57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -2763,6 +2766,15 @@
       </c>
       <c r="F57" t="s">
         <v>78</v>
+      </c>
+      <c r="G57">
+        <v>0.84663462638854903</v>
+      </c>
+      <c r="H57">
+        <v>0.46308088302612299</v>
+      </c>
+      <c r="I57" t="s">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
